--- a/추가피처데이터/투자자별매매동향(수급)/259960.xlsx
+++ b/추가피처데이터/투자자별매매동향(수급)/259960.xlsx
@@ -1598,43 +1598,43 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.3515625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="7.953125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="7.953125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="8.484375" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="7.953125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="7.953125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="8.484375" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="8.484375" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="8.484375" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="8.484375" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="8.484375" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="8.484375" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="7.953125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="8.484375" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="8.484375" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11.41796875" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.41796875" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.41796875" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="11.41796875" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="10.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="11.41796875" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="9.81640625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="10.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="9.81640625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="9.81640625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="9.81640625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="9.81640625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="9.81640625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="9.81640625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="9.81640625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="9.81640625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="7.953125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="7.953125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="9.81640625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="9.81640625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="9.81640625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="10.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="9.81640625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="9.81640625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="9.81640625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="32" max="32" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="33" max="33" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="34" max="34" width="8.484375" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="35" max="35" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="36" max="36" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="37" max="37" width="8.484375" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="38" max="38" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="36" max="36" width="9.81640625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="37" max="37" width="10.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="38" max="38" width="11.41796875" style="0" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1"/>
@@ -1866,94 +1866,94 @@
         <v>18</v>
       </c>
       <c r="B6" s="5">
-        <v>1179</v>
+        <v>232551</v>
       </c>
       <c r="C6" s="7">
-        <v>1141</v>
+        <v>225971</v>
       </c>
       <c r="D6" s="9">
-        <v>37</v>
+        <v>6580</v>
       </c>
       <c r="E6" s="11">
-        <v>978</v>
+        <v>191729</v>
       </c>
       <c r="F6" s="13">
-        <v>1126</v>
+        <v>222398</v>
       </c>
       <c r="G6" s="15">
-        <v>-149</v>
+        <v>-30669</v>
       </c>
       <c r="H6" s="17">
-        <v>598</v>
+        <v>118813</v>
       </c>
       <c r="I6" s="19">
-        <v>736</v>
+        <v>144376</v>
       </c>
       <c r="J6" s="21">
-        <v>-138</v>
+        <v>-25563</v>
       </c>
       <c r="K6" s="23">
-        <v>258</v>
+        <v>51340</v>
       </c>
       <c r="L6" s="25">
+        <v>45896</v>
+      </c>
+      <c r="M6" s="27">
+        <v>5444</v>
+      </c>
+      <c r="N6" s="29">
+        <v>8875</v>
+      </c>
+      <c r="O6" s="31">
+        <v>9713</v>
+      </c>
+      <c r="P6" s="33">
+        <v>-838</v>
+      </c>
+      <c r="Q6" s="35">
+        <v>17453</v>
+      </c>
+      <c r="R6" s="37">
+        <v>24730</v>
+      </c>
+      <c r="S6" s="39">
+        <v>-7277</v>
+      </c>
+      <c r="T6" s="41">
         <v>234</v>
       </c>
-      <c r="M6" s="27">
-        <v>24</v>
-      </c>
-      <c r="N6" s="29">
-        <v>45</v>
-      </c>
-      <c r="O6" s="31">
-        <v>50</v>
-      </c>
-      <c r="P6" s="33">
-        <v>-5</v>
-      </c>
-      <c r="Q6" s="35">
-        <v>88</v>
-      </c>
-      <c r="R6" s="37">
-        <v>126</v>
-      </c>
-      <c r="S6" s="39">
-        <v>-39</v>
-      </c>
-      <c r="T6" s="41">
-        <v>1</v>
-      </c>
       <c r="U6" s="43">
-        <v>2</v>
+        <v>321</v>
       </c>
       <c r="V6" s="45">
-        <v>0</v>
+        <v>-87</v>
       </c>
       <c r="W6" s="47">
-        <v>2</v>
+        <v>380</v>
       </c>
       <c r="X6" s="49">
-        <v>1</v>
+        <v>230</v>
       </c>
       <c r="Y6" s="51">
-        <v>1</v>
+        <v>151</v>
       </c>
       <c r="Z6" s="53">
-        <v>166</v>
+        <v>33024</v>
       </c>
       <c r="AA6" s="55">
-        <v>214</v>
+        <v>42109</v>
       </c>
       <c r="AB6" s="57">
-        <v>-48</v>
+        <v>-9085</v>
       </c>
       <c r="AC6" s="59">
-        <v>38</v>
+        <v>7506</v>
       </c>
       <c r="AD6" s="61">
-        <v>109</v>
+        <v>21376</v>
       </c>
       <c r="AE6" s="63">
-        <v>-71</v>
+        <v>-13871</v>
       </c>
       <c r="AF6" s="65">
         <v>0</v>
@@ -1965,16 +1965,16 @@
         <v>0</v>
       </c>
       <c r="AI6" s="71">
-        <v>330</v>
+        <v>65931</v>
       </c>
       <c r="AJ6" s="73">
-        <v>81</v>
+        <v>16279</v>
       </c>
       <c r="AK6" s="75">
-        <v>249</v>
+        <v>49652</v>
       </c>
       <c r="AL6" s="77">
-        <v>3085</v>
+        <v>609025</v>
       </c>
     </row>
     <row r="7">
@@ -1982,94 +1982,94 @@
         <v>19</v>
       </c>
       <c r="B7" s="5">
-        <v>1135</v>
+        <v>215284</v>
       </c>
       <c r="C7" s="7">
-        <v>1056</v>
+        <v>200094</v>
       </c>
       <c r="D7" s="9">
-        <v>80</v>
+        <v>15189</v>
       </c>
       <c r="E7" s="11">
-        <v>724</v>
+        <v>136957</v>
       </c>
       <c r="F7" s="13">
-        <v>1344</v>
+        <v>254819</v>
       </c>
       <c r="G7" s="15">
-        <v>-620</v>
+        <v>-117863</v>
       </c>
       <c r="H7" s="17">
-        <v>551</v>
+        <v>104567</v>
       </c>
       <c r="I7" s="19">
-        <v>469</v>
+        <v>88577</v>
       </c>
       <c r="J7" s="21">
-        <v>82</v>
+        <v>15990</v>
       </c>
       <c r="K7" s="23">
-        <v>229</v>
+        <v>43399</v>
       </c>
       <c r="L7" s="25">
-        <v>258</v>
+        <v>48529</v>
       </c>
       <c r="M7" s="27">
-        <v>-29</v>
+        <v>-5130</v>
       </c>
       <c r="N7" s="29">
-        <v>25</v>
+        <v>4663</v>
       </c>
       <c r="O7" s="31">
-        <v>16</v>
+        <v>3084</v>
       </c>
       <c r="P7" s="33">
-        <v>8</v>
+        <v>1579</v>
       </c>
       <c r="Q7" s="35">
-        <v>72</v>
+        <v>13816</v>
       </c>
       <c r="R7" s="37">
-        <v>60</v>
+        <v>11390</v>
       </c>
       <c r="S7" s="39">
-        <v>12</v>
+        <v>2426</v>
       </c>
       <c r="T7" s="41">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="U7" s="43">
-        <v>2</v>
+        <v>352</v>
       </c>
       <c r="V7" s="45">
-        <v>-2</v>
+        <v>-316</v>
       </c>
       <c r="W7" s="47">
-        <v>4</v>
+        <v>727</v>
       </c>
       <c r="X7" s="49">
-        <v>3</v>
+        <v>619</v>
       </c>
       <c r="Y7" s="51">
-        <v>1</v>
+        <v>107</v>
       </c>
       <c r="Z7" s="53">
-        <v>161</v>
+        <v>30438</v>
       </c>
       <c r="AA7" s="55">
-        <v>68</v>
+        <v>12945</v>
       </c>
       <c r="AB7" s="57">
-        <v>93</v>
+        <v>17493</v>
       </c>
       <c r="AC7" s="59">
-        <v>60</v>
+        <v>11489</v>
       </c>
       <c r="AD7" s="61">
-        <v>62</v>
+        <v>11658</v>
       </c>
       <c r="AE7" s="63">
-        <v>-1</v>
+        <v>-168</v>
       </c>
       <c r="AF7" s="65">
         <v>0</v>
@@ -2081,16 +2081,16 @@
         <v>0</v>
       </c>
       <c r="AI7" s="71">
-        <v>492</v>
+        <v>93037</v>
       </c>
       <c r="AJ7" s="73">
-        <v>34</v>
+        <v>6354</v>
       </c>
       <c r="AK7" s="75">
-        <v>458</v>
+        <v>86683</v>
       </c>
       <c r="AL7" s="77">
-        <v>2903</v>
+        <v>549844</v>
       </c>
     </row>
     <row r="8">
@@ -2098,94 +2098,94 @@
         <v>20</v>
       </c>
       <c r="B8" s="5">
-        <v>1263</v>
+        <v>216412</v>
       </c>
       <c r="C8" s="7">
-        <v>1065</v>
+        <v>180580</v>
       </c>
       <c r="D8" s="9">
-        <v>198</v>
+        <v>35832</v>
       </c>
       <c r="E8" s="11">
-        <v>1826</v>
+        <v>308229</v>
       </c>
       <c r="F8" s="13">
-        <v>2185</v>
+        <v>372890</v>
       </c>
       <c r="G8" s="15">
-        <v>-360</v>
+        <v>-64661</v>
       </c>
       <c r="H8" s="17">
-        <v>685</v>
+        <v>116800</v>
       </c>
       <c r="I8" s="19">
-        <v>570</v>
+        <v>96482</v>
       </c>
       <c r="J8" s="21">
-        <v>115</v>
+        <v>20318</v>
       </c>
       <c r="K8" s="23">
-        <v>289</v>
+        <v>49286</v>
       </c>
       <c r="L8" s="25">
-        <v>251</v>
+        <v>42503</v>
       </c>
       <c r="M8" s="27">
-        <v>38</v>
+        <v>6783</v>
       </c>
       <c r="N8" s="29">
-        <v>33</v>
+        <v>5742</v>
       </c>
       <c r="O8" s="31">
-        <v>36</v>
+        <v>6094</v>
       </c>
       <c r="P8" s="33">
-        <v>-3</v>
+        <v>-352</v>
       </c>
       <c r="Q8" s="35">
-        <v>117</v>
+        <v>19751</v>
       </c>
       <c r="R8" s="37">
-        <v>67</v>
+        <v>11394</v>
       </c>
       <c r="S8" s="39">
-        <v>50</v>
+        <v>8357</v>
       </c>
       <c r="T8" s="41">
-        <v>1</v>
+        <v>255</v>
       </c>
       <c r="U8" s="43">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="V8" s="45">
-        <v>1</v>
+        <v>218</v>
       </c>
       <c r="W8" s="47">
-        <v>3</v>
+        <v>489</v>
       </c>
       <c r="X8" s="49">
-        <v>4</v>
+        <v>684</v>
       </c>
       <c r="Y8" s="51">
-        <v>-1</v>
+        <v>-195</v>
       </c>
       <c r="Z8" s="53">
-        <v>146</v>
+        <v>24927</v>
       </c>
       <c r="AA8" s="55">
-        <v>143</v>
+        <v>24086</v>
       </c>
       <c r="AB8" s="57">
-        <v>3</v>
+        <v>841</v>
       </c>
       <c r="AC8" s="59">
-        <v>96</v>
+        <v>16349</v>
       </c>
       <c r="AD8" s="61">
-        <v>69</v>
+        <v>11684</v>
       </c>
       <c r="AE8" s="63">
-        <v>27</v>
+        <v>4665</v>
       </c>
       <c r="AF8" s="65">
         <v>0</v>
@@ -2197,16 +2197,16 @@
         <v>0</v>
       </c>
       <c r="AI8" s="71">
-        <v>84</v>
+        <v>14803</v>
       </c>
       <c r="AJ8" s="73">
-        <v>37</v>
+        <v>6291</v>
       </c>
       <c r="AK8" s="75">
-        <v>46</v>
+        <v>8512</v>
       </c>
       <c r="AL8" s="77">
-        <v>3857</v>
+        <v>656244</v>
       </c>
     </row>
     <row r="9">
@@ -2214,94 +2214,94 @@
         <v>21</v>
       </c>
       <c r="B9" s="5">
-        <v>974</v>
+        <v>176460</v>
       </c>
       <c r="C9" s="7">
-        <v>1224</v>
+        <v>219240</v>
       </c>
       <c r="D9" s="9">
-        <v>-250</v>
+        <v>-42780</v>
       </c>
       <c r="E9" s="11">
-        <v>2421</v>
+        <v>436197</v>
       </c>
       <c r="F9" s="13">
-        <v>2097</v>
+        <v>379832</v>
       </c>
       <c r="G9" s="15">
-        <v>324</v>
+        <v>56364</v>
       </c>
       <c r="H9" s="17">
-        <v>611</v>
+        <v>110211</v>
       </c>
       <c r="I9" s="19">
-        <v>629</v>
+        <v>112858</v>
       </c>
       <c r="J9" s="21">
-        <v>-18</v>
+        <v>-2647</v>
       </c>
       <c r="K9" s="23">
-        <v>208</v>
+        <v>37226</v>
       </c>
       <c r="L9" s="25">
-        <v>295</v>
+        <v>52726</v>
       </c>
       <c r="M9" s="27">
-        <v>-88</v>
+        <v>-15500</v>
       </c>
       <c r="N9" s="29">
-        <v>29</v>
+        <v>5375</v>
       </c>
       <c r="O9" s="31">
-        <v>30</v>
+        <v>5514</v>
       </c>
       <c r="P9" s="33">
-        <v>-1</v>
+        <v>-140</v>
       </c>
       <c r="Q9" s="35">
-        <v>63</v>
+        <v>11429</v>
       </c>
       <c r="R9" s="37">
-        <v>76</v>
+        <v>13823</v>
       </c>
       <c r="S9" s="39">
-        <v>-13</v>
+        <v>-2394</v>
       </c>
       <c r="T9" s="41">
         <v>0</v>
       </c>
       <c r="U9" s="43">
-        <v>1</v>
+        <v>135</v>
       </c>
       <c r="V9" s="45">
-        <v>-1</v>
+        <v>-135</v>
       </c>
       <c r="W9" s="47">
-        <v>3</v>
+        <v>525</v>
       </c>
       <c r="X9" s="49">
-        <v>1</v>
+        <v>138</v>
       </c>
       <c r="Y9" s="51">
-        <v>2</v>
+        <v>388</v>
       </c>
       <c r="Z9" s="53">
-        <v>146</v>
+        <v>26313</v>
       </c>
       <c r="AA9" s="55">
-        <v>113</v>
+        <v>20484</v>
       </c>
       <c r="AB9" s="57">
-        <v>33</v>
+        <v>5828</v>
       </c>
       <c r="AC9" s="59">
-        <v>161</v>
+        <v>29343</v>
       </c>
       <c r="AD9" s="61">
-        <v>112</v>
+        <v>20038</v>
       </c>
       <c r="AE9" s="63">
-        <v>49</v>
+        <v>9305</v>
       </c>
       <c r="AF9" s="65">
         <v>0</v>
@@ -2313,16 +2313,16 @@
         <v>0</v>
       </c>
       <c r="AI9" s="71">
-        <v>38</v>
+        <v>6908</v>
       </c>
       <c r="AJ9" s="73">
-        <v>94</v>
+        <v>17846</v>
       </c>
       <c r="AK9" s="75">
-        <v>-55</v>
+        <v>-10938</v>
       </c>
       <c r="AL9" s="77">
-        <v>4044</v>
+        <v>729776</v>
       </c>
     </row>
     <row r="10">
@@ -2330,94 +2330,94 @@
         <v>22</v>
       </c>
       <c r="B10" s="5">
-        <v>1158</v>
+        <v>199101</v>
       </c>
       <c r="C10" s="7">
-        <v>807</v>
+        <v>138794</v>
       </c>
       <c r="D10" s="9">
-        <v>351</v>
+        <v>60307</v>
       </c>
       <c r="E10" s="11">
-        <v>1601</v>
+        <v>274947</v>
       </c>
       <c r="F10" s="13">
-        <v>1939</v>
+        <v>335330</v>
       </c>
       <c r="G10" s="15">
-        <v>-338</v>
+        <v>-60384</v>
       </c>
       <c r="H10" s="17">
-        <v>517</v>
+        <v>90312</v>
       </c>
       <c r="I10" s="19">
-        <v>541</v>
+        <v>92398</v>
       </c>
       <c r="J10" s="21">
-        <v>-25</v>
+        <v>-2086</v>
       </c>
       <c r="K10" s="23">
-        <v>238</v>
+        <v>41506</v>
       </c>
       <c r="L10" s="25">
-        <v>228</v>
+        <v>38969</v>
       </c>
       <c r="M10" s="27">
-        <v>11</v>
+        <v>2537</v>
       </c>
       <c r="N10" s="29">
-        <v>24</v>
+        <v>4187</v>
       </c>
       <c r="O10" s="31">
-        <v>22</v>
+        <v>3662</v>
       </c>
       <c r="P10" s="33">
-        <v>2</v>
+        <v>525</v>
       </c>
       <c r="Q10" s="35">
-        <v>54</v>
+        <v>9652</v>
       </c>
       <c r="R10" s="37">
-        <v>58</v>
+        <v>10000</v>
       </c>
       <c r="S10" s="39">
-        <v>-4</v>
+        <v>-348</v>
       </c>
       <c r="T10" s="41">
-        <v>1</v>
+        <v>202</v>
       </c>
       <c r="U10" s="43">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="V10" s="45">
-        <v>1</v>
+        <v>186</v>
       </c>
       <c r="W10" s="47">
-        <v>1</v>
+        <v>106</v>
       </c>
       <c r="X10" s="49">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="Y10" s="51">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="Z10" s="53">
-        <v>139</v>
+        <v>24387</v>
       </c>
       <c r="AA10" s="55">
-        <v>154</v>
+        <v>26035</v>
       </c>
       <c r="AB10" s="57">
-        <v>-15</v>
+        <v>-1648</v>
       </c>
       <c r="AC10" s="59">
-        <v>59</v>
+        <v>10271</v>
       </c>
       <c r="AD10" s="61">
-        <v>79</v>
+        <v>13618</v>
       </c>
       <c r="AE10" s="63">
-        <v>-20</v>
+        <v>-3346</v>
       </c>
       <c r="AF10" s="65">
         <v>0</v>
@@ -2429,16 +2429,16 @@
         <v>0</v>
       </c>
       <c r="AI10" s="71">
-        <v>20</v>
+        <v>3486</v>
       </c>
       <c r="AJ10" s="73">
-        <v>8</v>
+        <v>1324</v>
       </c>
       <c r="AK10" s="75">
-        <v>12</v>
+        <v>2163</v>
       </c>
       <c r="AL10" s="77">
-        <v>3295</v>
+        <v>567846</v>
       </c>
     </row>
     <row r="11">
@@ -2446,94 +2446,94 @@
         <v>23</v>
       </c>
       <c r="B11" s="5">
-        <v>1764</v>
+        <v>326459</v>
       </c>
       <c r="C11" s="7">
-        <v>1829</v>
+        <v>343042</v>
       </c>
       <c r="D11" s="9">
-        <v>-66</v>
+        <v>-16584</v>
       </c>
       <c r="E11" s="11">
-        <v>3335</v>
+        <v>618416</v>
       </c>
       <c r="F11" s="13">
-        <v>2709</v>
+        <v>497469</v>
       </c>
       <c r="G11" s="15">
-        <v>626</v>
+        <v>120947</v>
       </c>
       <c r="H11" s="17">
-        <v>592</v>
+        <v>111130</v>
       </c>
       <c r="I11" s="19">
-        <v>1142</v>
+        <v>213224</v>
       </c>
       <c r="J11" s="21">
-        <v>-550</v>
+        <v>-102094</v>
       </c>
       <c r="K11" s="23">
-        <v>301</v>
+        <v>55918</v>
       </c>
       <c r="L11" s="25">
-        <v>257</v>
+        <v>48237</v>
       </c>
       <c r="M11" s="27">
-        <v>44</v>
+        <v>7680</v>
       </c>
       <c r="N11" s="29">
-        <v>41</v>
+        <v>7745</v>
       </c>
       <c r="O11" s="31">
-        <v>66</v>
+        <v>12423</v>
       </c>
       <c r="P11" s="33">
-        <v>-25</v>
+        <v>-4678</v>
       </c>
       <c r="Q11" s="35">
-        <v>83</v>
+        <v>15692</v>
       </c>
       <c r="R11" s="37">
-        <v>123</v>
+        <v>23560</v>
       </c>
       <c r="S11" s="39">
-        <v>-40</v>
+        <v>-7868</v>
       </c>
       <c r="T11" s="41">
-        <v>1</v>
+        <v>251</v>
       </c>
       <c r="U11" s="43">
-        <v>2</v>
+        <v>290</v>
       </c>
       <c r="V11" s="45">
-        <v>0</v>
+        <v>-39</v>
       </c>
       <c r="W11" s="47">
-        <v>1</v>
+        <v>254</v>
       </c>
       <c r="X11" s="49">
-        <v>9</v>
+        <v>1727</v>
       </c>
       <c r="Y11" s="51">
-        <v>-8</v>
+        <v>-1473</v>
       </c>
       <c r="Z11" s="53">
-        <v>117</v>
+        <v>22129</v>
       </c>
       <c r="AA11" s="55">
-        <v>496</v>
+        <v>91620</v>
       </c>
       <c r="AB11" s="57">
-        <v>-379</v>
+        <v>-69491</v>
       </c>
       <c r="AC11" s="59">
-        <v>48</v>
+        <v>9142</v>
       </c>
       <c r="AD11" s="61">
-        <v>189</v>
+        <v>35368</v>
       </c>
       <c r="AE11" s="63">
-        <v>-141</v>
+        <v>-26226</v>
       </c>
       <c r="AF11" s="65">
         <v>0</v>
@@ -2545,16 +2545,16 @@
         <v>0</v>
       </c>
       <c r="AI11" s="71">
-        <v>28</v>
+        <v>5313</v>
       </c>
       <c r="AJ11" s="73">
-        <v>39</v>
+        <v>7582</v>
       </c>
       <c r="AK11" s="75">
-        <v>-11</v>
+        <v>-2269</v>
       </c>
       <c r="AL11" s="77">
-        <v>5719</v>
+        <v>1061317</v>
       </c>
     </row>
     <row r="12">
@@ -2562,94 +2562,94 @@
         <v>24</v>
       </c>
       <c r="B12" s="5">
-        <v>2244</v>
+        <v>485198</v>
       </c>
       <c r="C12" s="7">
-        <v>1961</v>
+        <v>428274</v>
       </c>
       <c r="D12" s="9">
-        <v>283</v>
+        <v>56924</v>
       </c>
       <c r="E12" s="11">
-        <v>1852</v>
+        <v>394866</v>
       </c>
       <c r="F12" s="13">
-        <v>2223</v>
+        <v>474108</v>
       </c>
       <c r="G12" s="15">
-        <v>-371</v>
+        <v>-79241</v>
       </c>
       <c r="H12" s="17">
-        <v>1059</v>
+        <v>227764</v>
       </c>
       <c r="I12" s="19">
-        <v>968</v>
+        <v>204703</v>
       </c>
       <c r="J12" s="21">
-        <v>91</v>
+        <v>23062</v>
       </c>
       <c r="K12" s="23">
-        <v>357</v>
+        <v>75089</v>
       </c>
       <c r="L12" s="25">
-        <v>286</v>
+        <v>58519</v>
       </c>
       <c r="M12" s="27">
-        <v>71</v>
+        <v>16570</v>
       </c>
       <c r="N12" s="29">
-        <v>68</v>
+        <v>14729</v>
       </c>
       <c r="O12" s="31">
-        <v>55</v>
+        <v>11820</v>
       </c>
       <c r="P12" s="33">
-        <v>13</v>
+        <v>2910</v>
       </c>
       <c r="Q12" s="35">
-        <v>175</v>
+        <v>37443</v>
       </c>
       <c r="R12" s="37">
-        <v>147</v>
+        <v>32196</v>
       </c>
       <c r="S12" s="39">
-        <v>28</v>
+        <v>5247</v>
       </c>
       <c r="T12" s="41">
-        <v>1</v>
+        <v>171</v>
       </c>
       <c r="U12" s="43">
-        <v>1</v>
+        <v>203</v>
       </c>
       <c r="V12" s="45">
-        <v>0</v>
+        <v>-32</v>
       </c>
       <c r="W12" s="47">
-        <v>7</v>
+        <v>1459</v>
       </c>
       <c r="X12" s="49">
-        <v>51</v>
+        <v>11046</v>
       </c>
       <c r="Y12" s="51">
-        <v>-44</v>
+        <v>-9587</v>
       </c>
       <c r="Z12" s="53">
-        <v>308</v>
+        <v>66916</v>
       </c>
       <c r="AA12" s="55">
-        <v>259</v>
+        <v>55625</v>
       </c>
       <c r="AB12" s="57">
-        <v>49</v>
+        <v>11291</v>
       </c>
       <c r="AC12" s="59">
-        <v>143</v>
+        <v>31956</v>
       </c>
       <c r="AD12" s="61">
-        <v>168</v>
+        <v>35295</v>
       </c>
       <c r="AE12" s="63">
-        <v>-25</v>
+        <v>-3339</v>
       </c>
       <c r="AF12" s="65">
         <v>0</v>
@@ -2661,16 +2661,16 @@
         <v>0</v>
       </c>
       <c r="AI12" s="71">
-        <v>26</v>
+        <v>5404</v>
       </c>
       <c r="AJ12" s="73">
-        <v>29</v>
+        <v>6149</v>
       </c>
       <c r="AK12" s="75">
-        <v>-3</v>
+        <v>-745</v>
       </c>
       <c r="AL12" s="77">
-        <v>5181</v>
+        <v>1113233</v>
       </c>
     </row>
     <row r="13">
@@ -2678,94 +2678,94 @@
         <v>25</v>
       </c>
       <c r="B13" s="5">
-        <v>1302</v>
+        <v>237518</v>
       </c>
       <c r="C13" s="7">
-        <v>1092</v>
+        <v>199871</v>
       </c>
       <c r="D13" s="9">
-        <v>211</v>
+        <v>37647</v>
       </c>
       <c r="E13" s="11">
-        <v>1501</v>
+        <v>274837</v>
       </c>
       <c r="F13" s="13">
-        <v>1527</v>
+        <v>279127</v>
       </c>
       <c r="G13" s="15">
-        <v>-26</v>
+        <v>-4290</v>
       </c>
       <c r="H13" s="17">
-        <v>590</v>
+        <v>108104</v>
       </c>
       <c r="I13" s="19">
-        <v>778</v>
+        <v>142055</v>
       </c>
       <c r="J13" s="21">
-        <v>-188</v>
+        <v>-33951</v>
       </c>
       <c r="K13" s="23">
-        <v>265</v>
+        <v>48228</v>
       </c>
       <c r="L13" s="25">
-        <v>269</v>
+        <v>49517</v>
       </c>
       <c r="M13" s="27">
-        <v>-4</v>
+        <v>-1289</v>
       </c>
       <c r="N13" s="29">
-        <v>21</v>
+        <v>3814</v>
       </c>
       <c r="O13" s="31">
-        <v>47</v>
+        <v>8692</v>
       </c>
       <c r="P13" s="33">
-        <v>-26</v>
+        <v>-4878</v>
       </c>
       <c r="Q13" s="35">
-        <v>41</v>
+        <v>7636</v>
       </c>
       <c r="R13" s="37">
-        <v>71</v>
+        <v>12926</v>
       </c>
       <c r="S13" s="39">
-        <v>-29</v>
+        <v>-5289</v>
       </c>
       <c r="T13" s="41">
-        <v>2</v>
+        <v>425</v>
       </c>
       <c r="U13" s="43">
-        <v>2</v>
+        <v>344</v>
       </c>
       <c r="V13" s="45">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="W13" s="47">
-        <v>9</v>
+        <v>1591</v>
       </c>
       <c r="X13" s="49">
-        <v>8</v>
+        <v>1446</v>
       </c>
       <c r="Y13" s="51">
-        <v>1</v>
+        <v>144</v>
       </c>
       <c r="Z13" s="53">
-        <v>158</v>
+        <v>29134</v>
       </c>
       <c r="AA13" s="55">
-        <v>276</v>
+        <v>50159</v>
       </c>
       <c r="AB13" s="57">
-        <v>-119</v>
+        <v>-21025</v>
       </c>
       <c r="AC13" s="59">
-        <v>94</v>
+        <v>17277</v>
       </c>
       <c r="AD13" s="61">
-        <v>105</v>
+        <v>18972</v>
       </c>
       <c r="AE13" s="63">
-        <v>-11</v>
+        <v>-1695</v>
       </c>
       <c r="AF13" s="65">
         <v>0</v>
@@ -2777,16 +2777,16 @@
         <v>0</v>
       </c>
       <c r="AI13" s="71">
-        <v>10</v>
+        <v>1882</v>
       </c>
       <c r="AJ13" s="73">
-        <v>7</v>
+        <v>1288</v>
       </c>
       <c r="AK13" s="75">
-        <v>3</v>
+        <v>594</v>
       </c>
       <c r="AL13" s="77">
-        <v>3404</v>
+        <v>622341</v>
       </c>
     </row>
     <row r="14">
@@ -2794,94 +2794,94 @@
         <v>26</v>
       </c>
       <c r="B14" s="5">
-        <v>838</v>
+        <v>187546</v>
       </c>
       <c r="C14" s="7">
-        <v>895</v>
+        <v>200033</v>
       </c>
       <c r="D14" s="9">
-        <v>-57</v>
+        <v>-12487</v>
       </c>
       <c r="E14" s="11">
-        <v>1174</v>
+        <v>262702</v>
       </c>
       <c r="F14" s="13">
-        <v>1058</v>
+        <v>235920</v>
       </c>
       <c r="G14" s="15">
-        <v>117</v>
+        <v>26782</v>
       </c>
       <c r="H14" s="17">
-        <v>565</v>
+        <v>126530</v>
       </c>
       <c r="I14" s="19">
-        <v>587</v>
+        <v>131848</v>
       </c>
       <c r="J14" s="21">
-        <v>-22</v>
+        <v>-5318</v>
       </c>
       <c r="K14" s="23">
-        <v>262</v>
+        <v>58953</v>
       </c>
       <c r="L14" s="25">
-        <v>275</v>
+        <v>62374</v>
       </c>
       <c r="M14" s="27">
-        <v>-13</v>
+        <v>-3422</v>
       </c>
       <c r="N14" s="29">
-        <v>20</v>
+        <v>4394</v>
       </c>
       <c r="O14" s="31">
-        <v>32</v>
+        <v>7031</v>
       </c>
       <c r="P14" s="33">
-        <v>-12</v>
+        <v>-2638</v>
       </c>
       <c r="Q14" s="35">
-        <v>39</v>
+        <v>8713</v>
       </c>
       <c r="R14" s="37">
-        <v>73</v>
+        <v>16047</v>
       </c>
       <c r="S14" s="39">
-        <v>-33</v>
+        <v>-7334</v>
       </c>
       <c r="T14" s="41">
-        <v>1</v>
+        <v>135</v>
       </c>
       <c r="U14" s="43">
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="V14" s="45">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="W14" s="47">
-        <v>1</v>
+        <v>273</v>
       </c>
       <c r="X14" s="49">
-        <v>2</v>
+        <v>334</v>
       </c>
       <c r="Y14" s="51">
-        <v>0</v>
+        <v>-61</v>
       </c>
       <c r="Z14" s="53">
-        <v>199</v>
+        <v>44407</v>
       </c>
       <c r="AA14" s="55">
-        <v>106</v>
+        <v>23651</v>
       </c>
       <c r="AB14" s="57">
-        <v>93</v>
+        <v>20757</v>
       </c>
       <c r="AC14" s="59">
-        <v>42</v>
+        <v>9655</v>
       </c>
       <c r="AD14" s="61">
-        <v>99</v>
+        <v>22317</v>
       </c>
       <c r="AE14" s="63">
-        <v>-57</v>
+        <v>-12662</v>
       </c>
       <c r="AF14" s="65">
         <v>0</v>
@@ -2893,16 +2893,16 @@
         <v>0</v>
       </c>
       <c r="AI14" s="71">
-        <v>9</v>
+        <v>2072</v>
       </c>
       <c r="AJ14" s="73">
-        <v>47</v>
+        <v>11049</v>
       </c>
       <c r="AK14" s="75">
-        <v>-38</v>
+        <v>-8977</v>
       </c>
       <c r="AL14" s="77">
-        <v>2587</v>
+        <v>578850</v>
       </c>
     </row>
     <row r="15">
@@ -2910,94 +2910,94 @@
         <v>27</v>
       </c>
       <c r="B15" s="5">
-        <v>1024</v>
+        <v>260921</v>
       </c>
       <c r="C15" s="7">
-        <v>779</v>
+        <v>199814</v>
       </c>
       <c r="D15" s="9">
-        <v>245</v>
+        <v>61107</v>
       </c>
       <c r="E15" s="11">
-        <v>1472</v>
+        <v>375031</v>
       </c>
       <c r="F15" s="13">
-        <v>1667</v>
+        <v>426924</v>
       </c>
       <c r="G15" s="15">
-        <v>-196</v>
+        <v>-51893</v>
       </c>
       <c r="H15" s="17">
-        <v>643</v>
+        <v>164554</v>
       </c>
       <c r="I15" s="19">
-        <v>594</v>
+        <v>149611</v>
       </c>
       <c r="J15" s="21">
-        <v>49</v>
+        <v>14943</v>
       </c>
       <c r="K15" s="23">
-        <v>191</v>
+        <v>49066</v>
       </c>
       <c r="L15" s="25">
-        <v>241</v>
+        <v>60401</v>
       </c>
       <c r="M15" s="27">
-        <v>-50</v>
+        <v>-11335</v>
       </c>
       <c r="N15" s="29">
-        <v>54</v>
+        <v>13883</v>
       </c>
       <c r="O15" s="31">
-        <v>55</v>
+        <v>14055</v>
       </c>
       <c r="P15" s="33">
-        <v>-1</v>
+        <v>-171</v>
       </c>
       <c r="Q15" s="35">
-        <v>104</v>
+        <v>26416</v>
       </c>
       <c r="R15" s="37">
-        <v>74</v>
+        <v>18665</v>
       </c>
       <c r="S15" s="39">
-        <v>30</v>
+        <v>7751</v>
       </c>
       <c r="T15" s="41">
-        <v>2</v>
+        <v>429</v>
       </c>
       <c r="U15" s="43">
-        <v>1</v>
+        <v>175</v>
       </c>
       <c r="V15" s="45">
-        <v>1</v>
+        <v>254</v>
       </c>
       <c r="W15" s="47">
-        <v>3</v>
+        <v>741</v>
       </c>
       <c r="X15" s="49">
-        <v>9</v>
+        <v>2335</v>
       </c>
       <c r="Y15" s="51">
-        <v>-6</v>
+        <v>-1593</v>
       </c>
       <c r="Z15" s="53">
-        <v>196</v>
+        <v>50460</v>
       </c>
       <c r="AA15" s="55">
-        <v>128</v>
+        <v>32228</v>
       </c>
       <c r="AB15" s="57">
-        <v>68</v>
+        <v>18231</v>
       </c>
       <c r="AC15" s="59">
-        <v>93</v>
+        <v>23559</v>
       </c>
       <c r="AD15" s="61">
-        <v>86</v>
+        <v>21753</v>
       </c>
       <c r="AE15" s="63">
-        <v>7</v>
+        <v>1806</v>
       </c>
       <c r="AF15" s="65">
         <v>0</v>
@@ -3009,16 +3009,16 @@
         <v>0</v>
       </c>
       <c r="AI15" s="71">
-        <v>9</v>
+        <v>2377</v>
       </c>
       <c r="AJ15" s="73">
-        <v>107</v>
+        <v>26534</v>
       </c>
       <c r="AK15" s="75">
-        <v>-98</v>
+        <v>-24157</v>
       </c>
       <c r="AL15" s="77">
-        <v>3148</v>
+        <v>802883</v>
       </c>
     </row>
     <row r="16">
@@ -3026,94 +3026,94 @@
         <v>28</v>
       </c>
       <c r="B16" s="5">
-        <v>1323</v>
+        <v>318126</v>
       </c>
       <c r="C16" s="7">
-        <v>1390</v>
+        <v>335349</v>
       </c>
       <c r="D16" s="9">
-        <v>-66</v>
+        <v>-17223</v>
       </c>
       <c r="E16" s="11">
-        <v>1550</v>
+        <v>368131</v>
       </c>
       <c r="F16" s="13">
-        <v>1738</v>
+        <v>414895</v>
       </c>
       <c r="G16" s="15">
-        <v>-188</v>
+        <v>-46764</v>
       </c>
       <c r="H16" s="17">
-        <v>905</v>
+        <v>218448</v>
       </c>
       <c r="I16" s="19">
-        <v>579</v>
+        <v>137192</v>
       </c>
       <c r="J16" s="21">
-        <v>325</v>
+        <v>81257</v>
       </c>
       <c r="K16" s="23">
-        <v>189</v>
+        <v>45078</v>
       </c>
       <c r="L16" s="25">
-        <v>195</v>
+        <v>46512</v>
       </c>
       <c r="M16" s="27">
-        <v>-5</v>
+        <v>-1434</v>
       </c>
       <c r="N16" s="29">
-        <v>110</v>
+        <v>26676</v>
       </c>
       <c r="O16" s="31">
-        <v>56</v>
+        <v>13388</v>
       </c>
       <c r="P16" s="33">
-        <v>54</v>
+        <v>13288</v>
       </c>
       <c r="Q16" s="35">
-        <v>177</v>
+        <v>43185</v>
       </c>
       <c r="R16" s="37">
-        <v>97</v>
+        <v>22452</v>
       </c>
       <c r="S16" s="39">
-        <v>80</v>
+        <v>20733</v>
       </c>
       <c r="T16" s="41">
-        <v>1</v>
+        <v>262</v>
       </c>
       <c r="U16" s="43">
-        <v>1</v>
+        <v>221</v>
       </c>
       <c r="V16" s="45">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="W16" s="47">
-        <v>3</v>
+        <v>720</v>
       </c>
       <c r="X16" s="49">
-        <v>6</v>
+        <v>1330</v>
       </c>
       <c r="Y16" s="51">
-        <v>-3</v>
+        <v>-610</v>
       </c>
       <c r="Z16" s="53">
-        <v>309</v>
+        <v>75039</v>
       </c>
       <c r="AA16" s="55">
-        <v>146</v>
+        <v>34686</v>
       </c>
       <c r="AB16" s="57">
-        <v>163</v>
+        <v>40353</v>
       </c>
       <c r="AC16" s="59">
-        <v>116</v>
+        <v>27489</v>
       </c>
       <c r="AD16" s="61">
-        <v>79</v>
+        <v>18602</v>
       </c>
       <c r="AE16" s="63">
-        <v>37</v>
+        <v>8886</v>
       </c>
       <c r="AF16" s="65">
         <v>0</v>
@@ -3125,16 +3125,16 @@
         <v>0</v>
       </c>
       <c r="AI16" s="71">
-        <v>13</v>
+        <v>3137</v>
       </c>
       <c r="AJ16" s="73">
-        <v>85</v>
+        <v>20407</v>
       </c>
       <c r="AK16" s="75">
-        <v>-71</v>
+        <v>-17270</v>
       </c>
       <c r="AL16" s="77">
-        <v>3791</v>
+        <v>907843</v>
       </c>
     </row>
     <row r="17">
@@ -3142,94 +3142,94 @@
         <v>29</v>
       </c>
       <c r="B17" s="5">
-        <v>1367</v>
+        <v>354976</v>
       </c>
       <c r="C17" s="7">
-        <v>1721</v>
+        <v>450288</v>
       </c>
       <c r="D17" s="9">
-        <v>-355</v>
+        <v>-95312</v>
       </c>
       <c r="E17" s="11">
-        <v>2166</v>
+        <v>555097</v>
       </c>
       <c r="F17" s="13">
-        <v>2284</v>
+        <v>594539</v>
       </c>
       <c r="G17" s="15">
-        <v>-118</v>
+        <v>-39443</v>
       </c>
       <c r="H17" s="17">
-        <v>1205</v>
+        <v>320995</v>
       </c>
       <c r="I17" s="19">
-        <v>732</v>
+        <v>186034</v>
       </c>
       <c r="J17" s="21">
-        <v>473</v>
+        <v>134961</v>
       </c>
       <c r="K17" s="23">
-        <v>270</v>
+        <v>71108</v>
       </c>
       <c r="L17" s="25">
-        <v>261</v>
+        <v>68336</v>
       </c>
       <c r="M17" s="27">
-        <v>9</v>
+        <v>2772</v>
       </c>
       <c r="N17" s="29">
-        <v>101</v>
+        <v>27255</v>
       </c>
       <c r="O17" s="31">
-        <v>50</v>
+        <v>12698</v>
       </c>
       <c r="P17" s="33">
-        <v>51</v>
+        <v>14557</v>
       </c>
       <c r="Q17" s="35">
-        <v>290</v>
+        <v>78501</v>
       </c>
       <c r="R17" s="37">
-        <v>108</v>
+        <v>26966</v>
       </c>
       <c r="S17" s="39">
-        <v>182</v>
+        <v>51535</v>
       </c>
       <c r="T17" s="41">
-        <v>5</v>
+        <v>1468</v>
       </c>
       <c r="U17" s="43">
-        <v>7</v>
+        <v>1841</v>
       </c>
       <c r="V17" s="45">
-        <v>-2</v>
+        <v>-373</v>
       </c>
       <c r="W17" s="47">
-        <v>1</v>
+        <v>170</v>
       </c>
       <c r="X17" s="49">
-        <v>1</v>
+        <v>279</v>
       </c>
       <c r="Y17" s="51">
-        <v>0</v>
+        <v>-110</v>
       </c>
       <c r="Z17" s="53">
-        <v>442</v>
+        <v>116951</v>
       </c>
       <c r="AA17" s="55">
-        <v>177</v>
+        <v>44366</v>
       </c>
       <c r="AB17" s="57">
-        <v>265</v>
+        <v>72585</v>
       </c>
       <c r="AC17" s="59">
-        <v>96</v>
+        <v>25541</v>
       </c>
       <c r="AD17" s="61">
-        <v>128</v>
+        <v>31547</v>
       </c>
       <c r="AE17" s="63">
-        <v>-31</v>
+        <v>-6005</v>
       </c>
       <c r="AF17" s="65">
         <v>0</v>
@@ -3241,16 +3241,16 @@
         <v>0</v>
       </c>
       <c r="AI17" s="71">
-        <v>25</v>
+        <v>6351</v>
       </c>
       <c r="AJ17" s="73">
-        <v>25</v>
+        <v>6558</v>
       </c>
       <c r="AK17" s="75">
-        <v>0</v>
+        <v>-206</v>
       </c>
       <c r="AL17" s="77">
-        <v>4763</v>
+        <v>1237419</v>
       </c>
     </row>
     <row r="18">
@@ -3258,94 +3258,94 @@
         <v>30</v>
       </c>
       <c r="B18" s="5">
-        <v>2248</v>
+        <v>564877</v>
       </c>
       <c r="C18" s="7">
-        <v>1905</v>
+        <v>482140</v>
       </c>
       <c r="D18" s="9">
-        <v>343</v>
+        <v>82737</v>
       </c>
       <c r="E18" s="11">
-        <v>1879</v>
+        <v>471643</v>
       </c>
       <c r="F18" s="13">
-        <v>2195</v>
+        <v>554375</v>
       </c>
       <c r="G18" s="15">
-        <v>-317</v>
+        <v>-82731</v>
       </c>
       <c r="H18" s="17">
-        <v>1397</v>
+        <v>350681</v>
       </c>
       <c r="I18" s="19">
-        <v>1076</v>
+        <v>266676</v>
       </c>
       <c r="J18" s="21">
-        <v>321</v>
+        <v>84005</v>
       </c>
       <c r="K18" s="23">
-        <v>611</v>
+        <v>150249</v>
       </c>
       <c r="L18" s="25">
-        <v>544</v>
+        <v>134028</v>
       </c>
       <c r="M18" s="27">
-        <v>67</v>
+        <v>16222</v>
       </c>
       <c r="N18" s="29">
-        <v>70</v>
+        <v>17894</v>
       </c>
       <c r="O18" s="31">
-        <v>30</v>
+        <v>7629</v>
       </c>
       <c r="P18" s="33">
-        <v>40</v>
+        <v>10266</v>
       </c>
       <c r="Q18" s="35">
+        <v>49491</v>
+      </c>
+      <c r="R18" s="37">
+        <v>38465</v>
+      </c>
+      <c r="S18" s="39">
+        <v>11026</v>
+      </c>
+      <c r="T18" s="41">
+        <v>462</v>
+      </c>
+      <c r="U18" s="43">
         <v>194</v>
       </c>
-      <c r="R18" s="37">
-        <v>154</v>
-      </c>
-      <c r="S18" s="39">
-        <v>39</v>
-      </c>
-      <c r="T18" s="41">
-        <v>2</v>
-      </c>
-      <c r="U18" s="43">
-        <v>1</v>
-      </c>
       <c r="V18" s="45">
-        <v>1</v>
+        <v>268</v>
       </c>
       <c r="W18" s="47">
-        <v>11</v>
+        <v>2907</v>
       </c>
       <c r="X18" s="49">
-        <v>9</v>
+        <v>2354</v>
       </c>
       <c r="Y18" s="51">
-        <v>2</v>
+        <v>554</v>
       </c>
       <c r="Z18" s="53">
-        <v>262</v>
+        <v>66845</v>
       </c>
       <c r="AA18" s="55">
-        <v>158</v>
+        <v>39247</v>
       </c>
       <c r="AB18" s="57">
-        <v>104</v>
+        <v>27598</v>
       </c>
       <c r="AC18" s="59">
-        <v>247</v>
+        <v>62832</v>
       </c>
       <c r="AD18" s="61">
-        <v>179</v>
+        <v>44760</v>
       </c>
       <c r="AE18" s="63">
-        <v>68</v>
+        <v>18072</v>
       </c>
       <c r="AF18" s="65">
         <v>0</v>
@@ -3357,16 +3357,16 @@
         <v>0</v>
       </c>
       <c r="AI18" s="71">
-        <v>36</v>
+        <v>9125</v>
       </c>
       <c r="AJ18" s="73">
-        <v>384</v>
+        <v>93136</v>
       </c>
       <c r="AK18" s="75">
-        <v>-347</v>
+        <v>-84011</v>
       </c>
       <c r="AL18" s="77">
-        <v>5560</v>
+        <v>1396326</v>
       </c>
     </row>
     <row r="19">
@@ -3374,94 +3374,94 @@
         <v>31</v>
       </c>
       <c r="B19" s="5">
-        <v>1530</v>
+        <v>407984</v>
       </c>
       <c r="C19" s="7">
-        <v>1574</v>
+        <v>418482</v>
       </c>
       <c r="D19" s="9">
-        <v>-44</v>
+        <v>-10498</v>
       </c>
       <c r="E19" s="11">
-        <v>2216</v>
+        <v>593952</v>
       </c>
       <c r="F19" s="13">
-        <v>2136</v>
+        <v>577410</v>
       </c>
       <c r="G19" s="15">
-        <v>79</v>
+        <v>16542</v>
       </c>
       <c r="H19" s="17">
-        <v>437</v>
+        <v>118354</v>
       </c>
       <c r="I19" s="19">
-        <v>480</v>
+        <v>126606</v>
       </c>
       <c r="J19" s="21">
-        <v>-43</v>
+        <v>-8252</v>
       </c>
       <c r="K19" s="23">
-        <v>126</v>
+        <v>33562</v>
       </c>
       <c r="L19" s="25">
-        <v>203</v>
+        <v>54141</v>
       </c>
       <c r="M19" s="27">
-        <v>-77</v>
+        <v>-20579</v>
       </c>
       <c r="N19" s="29">
-        <v>21</v>
+        <v>5605</v>
       </c>
       <c r="O19" s="31">
-        <v>27</v>
+        <v>7105</v>
       </c>
       <c r="P19" s="33">
-        <v>-6</v>
+        <v>-1499</v>
       </c>
       <c r="Q19" s="35">
-        <v>77</v>
+        <v>20807</v>
       </c>
       <c r="R19" s="37">
-        <v>73</v>
+        <v>18592</v>
       </c>
       <c r="S19" s="39">
-        <v>4</v>
+        <v>2215</v>
       </c>
       <c r="T19" s="41">
-        <v>2</v>
+        <v>507</v>
       </c>
       <c r="U19" s="43">
-        <v>1</v>
+        <v>191</v>
       </c>
       <c r="V19" s="45">
-        <v>1</v>
+        <v>316</v>
       </c>
       <c r="W19" s="47">
-        <v>1</v>
+        <v>245</v>
       </c>
       <c r="X19" s="49">
-        <v>4</v>
+        <v>869</v>
       </c>
       <c r="Y19" s="51">
-        <v>-3</v>
+        <v>-625</v>
       </c>
       <c r="Z19" s="53">
-        <v>84</v>
+        <v>22606</v>
       </c>
       <c r="AA19" s="55">
-        <v>102</v>
+        <v>27083</v>
       </c>
       <c r="AB19" s="57">
-        <v>-17</v>
+        <v>-4477</v>
       </c>
       <c r="AC19" s="59">
-        <v>126</v>
+        <v>35023</v>
       </c>
       <c r="AD19" s="61">
-        <v>71</v>
+        <v>18625</v>
       </c>
       <c r="AE19" s="63">
-        <v>55</v>
+        <v>16398</v>
       </c>
       <c r="AF19" s="65">
         <v>0</v>
@@ -3473,16 +3473,16 @@
         <v>0</v>
       </c>
       <c r="AI19" s="71">
-        <v>37</v>
+        <v>10058</v>
       </c>
       <c r="AJ19" s="73">
-        <v>28</v>
+        <v>7849</v>
       </c>
       <c r="AK19" s="75">
-        <v>8</v>
+        <v>2208</v>
       </c>
       <c r="AL19" s="77">
-        <v>4220</v>
+        <v>1130348</v>
       </c>
     </row>
     <row r="20">
@@ -3490,94 +3490,94 @@
         <v>32</v>
       </c>
       <c r="B20" s="5">
-        <v>1214</v>
+        <v>344382</v>
       </c>
       <c r="C20" s="7">
-        <v>1401</v>
+        <v>397252</v>
       </c>
       <c r="D20" s="9">
-        <v>-187</v>
+        <v>-52871</v>
       </c>
       <c r="E20" s="11">
-        <v>2210</v>
+        <v>624650</v>
       </c>
       <c r="F20" s="13">
-        <v>1889</v>
+        <v>535151</v>
       </c>
       <c r="G20" s="15">
-        <v>321</v>
+        <v>89500</v>
       </c>
       <c r="H20" s="17">
-        <v>461</v>
+        <v>130487</v>
       </c>
       <c r="I20" s="19">
-        <v>618</v>
+        <v>173700</v>
       </c>
       <c r="J20" s="21">
-        <v>-157</v>
+        <v>-43213</v>
       </c>
       <c r="K20" s="23">
-        <v>156</v>
+        <v>44259</v>
       </c>
       <c r="L20" s="25">
-        <v>140</v>
+        <v>39838</v>
       </c>
       <c r="M20" s="27">
-        <v>16</v>
+        <v>4421</v>
       </c>
       <c r="N20" s="29">
-        <v>38</v>
+        <v>10858</v>
       </c>
       <c r="O20" s="31">
-        <v>19</v>
+        <v>5244</v>
       </c>
       <c r="P20" s="33">
-        <v>20</v>
+        <v>5614</v>
       </c>
       <c r="Q20" s="35">
-        <v>51</v>
+        <v>14795</v>
       </c>
       <c r="R20" s="37">
-        <v>90</v>
+        <v>25394</v>
       </c>
       <c r="S20" s="39">
-        <v>-39</v>
+        <v>-10599</v>
       </c>
       <c r="T20" s="41">
-        <v>3</v>
+        <v>761</v>
       </c>
       <c r="U20" s="43">
-        <v>0</v>
+        <v>108</v>
       </c>
       <c r="V20" s="45">
-        <v>2</v>
+        <v>653</v>
       </c>
       <c r="W20" s="47">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="X20" s="49">
-        <v>36</v>
+        <v>9902</v>
       </c>
       <c r="Y20" s="51">
-        <v>-36</v>
+        <v>-9829</v>
       </c>
       <c r="Z20" s="53">
-        <v>78</v>
+        <v>21904</v>
       </c>
       <c r="AA20" s="55">
-        <v>163</v>
+        <v>45811</v>
       </c>
       <c r="AB20" s="57">
-        <v>-86</v>
+        <v>-23907</v>
       </c>
       <c r="AC20" s="59">
-        <v>134</v>
+        <v>37835</v>
       </c>
       <c r="AD20" s="61">
-        <v>169</v>
+        <v>47402</v>
       </c>
       <c r="AE20" s="63">
-        <v>-35</v>
+        <v>-9567</v>
       </c>
       <c r="AF20" s="65">
         <v>0</v>
@@ -3589,16 +3589,16 @@
         <v>0</v>
       </c>
       <c r="AI20" s="71">
-        <v>33</v>
+        <v>9421</v>
       </c>
       <c r="AJ20" s="73">
-        <v>10</v>
+        <v>2837</v>
       </c>
       <c r="AK20" s="75">
-        <v>23</v>
+        <v>6584</v>
       </c>
       <c r="AL20" s="77">
-        <v>3918</v>
+        <v>1108940</v>
       </c>
     </row>
     <row r="21">
@@ -3606,94 +3606,94 @@
         <v>33</v>
       </c>
       <c r="B21" s="5">
-        <v>2246</v>
+        <v>624520</v>
       </c>
       <c r="C21" s="7">
-        <v>2236</v>
+        <v>625804</v>
       </c>
       <c r="D21" s="9">
-        <v>10</v>
+        <v>-1284</v>
       </c>
       <c r="E21" s="11">
-        <v>4187</v>
+        <v>1172464</v>
       </c>
       <c r="F21" s="13">
-        <v>4026</v>
+        <v>1129426</v>
       </c>
       <c r="G21" s="15">
-        <v>161</v>
+        <v>43038</v>
       </c>
       <c r="H21" s="17">
-        <v>682</v>
+        <v>193616</v>
       </c>
       <c r="I21" s="19">
-        <v>877</v>
+        <v>242316</v>
       </c>
       <c r="J21" s="21">
-        <v>-195</v>
+        <v>-48700</v>
       </c>
       <c r="K21" s="23">
-        <v>179</v>
+        <v>50460</v>
       </c>
       <c r="L21" s="25">
-        <v>202</v>
+        <v>57137</v>
       </c>
       <c r="M21" s="27">
-        <v>-24</v>
+        <v>-6678</v>
       </c>
       <c r="N21" s="29">
-        <v>57</v>
+        <v>16370</v>
       </c>
       <c r="O21" s="31">
-        <v>51</v>
+        <v>14086</v>
       </c>
       <c r="P21" s="33">
-        <v>5</v>
+        <v>2284</v>
       </c>
       <c r="Q21" s="35">
-        <v>88</v>
+        <v>25286</v>
       </c>
       <c r="R21" s="37">
-        <v>147</v>
+        <v>40348</v>
       </c>
       <c r="S21" s="39">
-        <v>-59</v>
+        <v>-15061</v>
       </c>
       <c r="T21" s="41">
-        <v>1</v>
+        <v>264</v>
       </c>
       <c r="U21" s="43">
-        <v>1</v>
+        <v>136</v>
       </c>
       <c r="V21" s="45">
-        <v>0</v>
+        <v>128</v>
       </c>
       <c r="W21" s="47">
-        <v>1</v>
+        <v>181</v>
       </c>
       <c r="X21" s="49">
-        <v>2</v>
+        <v>529</v>
       </c>
       <c r="Y21" s="51">
-        <v>-1</v>
+        <v>-348</v>
       </c>
       <c r="Z21" s="53">
-        <v>207</v>
+        <v>58704</v>
       </c>
       <c r="AA21" s="55">
-        <v>232</v>
+        <v>63928</v>
       </c>
       <c r="AB21" s="57">
-        <v>-25</v>
+        <v>-5224</v>
       </c>
       <c r="AC21" s="59">
-        <v>150</v>
+        <v>42351</v>
       </c>
       <c r="AD21" s="61">
-        <v>242</v>
+        <v>66152</v>
       </c>
       <c r="AE21" s="63">
-        <v>-92</v>
+        <v>-23801</v>
       </c>
       <c r="AF21" s="65">
         <v>0</v>
@@ -3705,16 +3705,16 @@
         <v>0</v>
       </c>
       <c r="AI21" s="71">
-        <v>47</v>
+        <v>13318</v>
       </c>
       <c r="AJ21" s="73">
-        <v>23</v>
+        <v>6373</v>
       </c>
       <c r="AK21" s="75">
-        <v>24</v>
+        <v>6946</v>
       </c>
       <c r="AL21" s="77">
-        <v>7162</v>
+        <v>2003919</v>
       </c>
     </row>
     <row r="22">
@@ -3722,94 +3722,94 @@
         <v>34</v>
       </c>
       <c r="B22" s="5">
-        <v>2811</v>
+        <v>924901</v>
       </c>
       <c r="C22" s="7">
-        <v>3252</v>
+        <v>1083228</v>
       </c>
       <c r="D22" s="9">
-        <v>-441</v>
+        <v>-158326</v>
       </c>
       <c r="E22" s="11">
-        <v>5375</v>
+        <v>1814179</v>
       </c>
       <c r="F22" s="13">
-        <v>4103</v>
+        <v>1345055</v>
       </c>
       <c r="G22" s="15">
-        <v>1272</v>
+        <v>469123</v>
       </c>
       <c r="H22" s="17">
-        <v>655</v>
+        <v>217193</v>
       </c>
       <c r="I22" s="19">
-        <v>1488</v>
+        <v>530142</v>
       </c>
       <c r="J22" s="21">
-        <v>-833</v>
+        <v>-312949</v>
       </c>
       <c r="K22" s="23">
-        <v>204</v>
+        <v>67157</v>
       </c>
       <c r="L22" s="25">
-        <v>256</v>
+        <v>89234</v>
       </c>
       <c r="M22" s="27">
-        <v>-51</v>
+        <v>-22077</v>
       </c>
       <c r="N22" s="29">
-        <v>29</v>
+        <v>9141</v>
       </c>
       <c r="O22" s="31">
-        <v>120</v>
+        <v>43963</v>
       </c>
       <c r="P22" s="33">
-        <v>-91</v>
+        <v>-34822</v>
       </c>
       <c r="Q22" s="35">
-        <v>71</v>
+        <v>23767</v>
       </c>
       <c r="R22" s="37">
-        <v>318</v>
+        <v>110840</v>
       </c>
       <c r="S22" s="39">
-        <v>-247</v>
+        <v>-87073</v>
       </c>
       <c r="T22" s="41">
-        <v>2</v>
+        <v>604</v>
       </c>
       <c r="U22" s="43">
-        <v>3</v>
+        <v>896</v>
       </c>
       <c r="V22" s="45">
-        <v>-1</v>
+        <v>-292</v>
       </c>
       <c r="W22" s="47">
-        <v>1</v>
+        <v>455</v>
       </c>
       <c r="X22" s="49">
-        <v>7</v>
+        <v>2722</v>
       </c>
       <c r="Y22" s="51">
-        <v>-6</v>
+        <v>-2267</v>
       </c>
       <c r="Z22" s="53">
-        <v>210</v>
+        <v>70483</v>
       </c>
       <c r="AA22" s="55">
-        <v>649</v>
+        <v>235738</v>
       </c>
       <c r="AB22" s="57">
-        <v>-439</v>
+        <v>-165255</v>
       </c>
       <c r="AC22" s="59">
-        <v>137</v>
+        <v>45585</v>
       </c>
       <c r="AD22" s="61">
-        <v>136</v>
+        <v>46749</v>
       </c>
       <c r="AE22" s="63">
-        <v>1</v>
+        <v>-1163</v>
       </c>
       <c r="AF22" s="65">
         <v>0</v>
@@ -3821,16 +3821,16 @@
         <v>0</v>
       </c>
       <c r="AI22" s="71">
-        <v>74</v>
+        <v>25738</v>
       </c>
       <c r="AJ22" s="73">
-        <v>71</v>
+        <v>23586</v>
       </c>
       <c r="AK22" s="75">
-        <v>3</v>
+        <v>2152</v>
       </c>
       <c r="AL22" s="77">
-        <v>8915</v>
+        <v>2982011</v>
       </c>
     </row>
     <row r="23">
@@ -3838,94 +3838,94 @@
         <v>35</v>
       </c>
       <c r="B23" s="5">
-        <v>3085</v>
+        <v>1497901</v>
       </c>
       <c r="C23" s="7">
-        <v>2506</v>
+        <v>1217008</v>
       </c>
       <c r="D23" s="9">
-        <v>579</v>
+        <v>280893</v>
       </c>
       <c r="E23" s="11">
-        <v>1984</v>
+        <v>939966</v>
       </c>
       <c r="F23" s="13">
-        <v>2034</v>
+        <v>969461</v>
       </c>
       <c r="G23" s="15">
-        <v>-49</v>
+        <v>-29496</v>
       </c>
       <c r="H23" s="17">
-        <v>568</v>
+        <v>271578</v>
       </c>
       <c r="I23" s="19">
-        <v>1092</v>
+        <v>520410</v>
       </c>
       <c r="J23" s="21">
-        <v>-525</v>
+        <v>-248832</v>
       </c>
       <c r="K23" s="23">
-        <v>203</v>
+        <v>96325</v>
       </c>
       <c r="L23" s="25">
-        <v>218</v>
+        <v>104025</v>
       </c>
       <c r="M23" s="27">
-        <v>-15</v>
+        <v>-7700</v>
       </c>
       <c r="N23" s="29">
-        <v>37</v>
+        <v>17782</v>
       </c>
       <c r="O23" s="31">
-        <v>88</v>
+        <v>41532</v>
       </c>
       <c r="P23" s="33">
-        <v>-50</v>
+        <v>-23750</v>
       </c>
       <c r="Q23" s="35">
-        <v>120</v>
+        <v>57607</v>
       </c>
       <c r="R23" s="37">
-        <v>193</v>
+        <v>91862</v>
       </c>
       <c r="S23" s="39">
-        <v>-72</v>
+        <v>-34255</v>
       </c>
       <c r="T23" s="41">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="U23" s="43">
-        <v>1</v>
+        <v>623</v>
       </c>
       <c r="V23" s="45">
-        <v>-1</v>
+        <v>-571</v>
       </c>
       <c r="W23" s="47">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="X23" s="49">
-        <v>9</v>
+        <v>4072</v>
       </c>
       <c r="Y23" s="51">
-        <v>-8</v>
+        <v>-4019</v>
       </c>
       <c r="Z23" s="53">
-        <v>184</v>
+        <v>88397</v>
       </c>
       <c r="AA23" s="55">
-        <v>438</v>
+        <v>208181</v>
       </c>
       <c r="AB23" s="57">
-        <v>-254</v>
+        <v>-119784</v>
       </c>
       <c r="AC23" s="59">
-        <v>24</v>
+        <v>11362</v>
       </c>
       <c r="AD23" s="61">
-        <v>147</v>
+        <v>70116</v>
       </c>
       <c r="AE23" s="63">
-        <v>-123</v>
+        <v>-58754</v>
       </c>
       <c r="AF23" s="65">
         <v>0</v>
@@ -3937,16 +3937,16 @@
         <v>0</v>
       </c>
       <c r="AI23" s="71">
-        <v>19</v>
+        <v>9050</v>
       </c>
       <c r="AJ23" s="73">
-        <v>24</v>
+        <v>11615</v>
       </c>
       <c r="AK23" s="75">
-        <v>-5</v>
+        <v>-2565</v>
       </c>
       <c r="AL23" s="77">
-        <v>5657</v>
+        <v>2718495</v>
       </c>
     </row>
     <row r="24">
@@ -3954,94 +3954,94 @@
         <v>36</v>
       </c>
       <c r="B24" s="5">
-        <v>5369</v>
+        <v>2763193</v>
       </c>
       <c r="C24" s="7">
-        <v>4246</v>
+        <v>2172237</v>
       </c>
       <c r="D24" s="9">
-        <v>1123</v>
+        <v>590956</v>
       </c>
       <c r="E24" s="11">
-        <v>5325</v>
+        <v>2751338</v>
       </c>
       <c r="F24" s="13">
-        <v>6566</v>
+        <v>3413531</v>
       </c>
       <c r="G24" s="15">
-        <v>-1241</v>
+        <v>-662193</v>
       </c>
       <c r="H24" s="17">
-        <v>1535</v>
+        <v>794585</v>
       </c>
       <c r="I24" s="19">
-        <v>1353</v>
+        <v>690531</v>
       </c>
       <c r="J24" s="21">
-        <v>182</v>
+        <v>104054</v>
       </c>
       <c r="K24" s="23">
-        <v>338</v>
+        <v>173227</v>
       </c>
       <c r="L24" s="25">
-        <v>321</v>
+        <v>164876</v>
       </c>
       <c r="M24" s="27">
-        <v>17</v>
+        <v>8351</v>
       </c>
       <c r="N24" s="29">
-        <v>99</v>
+        <v>51371</v>
       </c>
       <c r="O24" s="31">
-        <v>112</v>
+        <v>57358</v>
       </c>
       <c r="P24" s="33">
-        <v>-13</v>
+        <v>-5987</v>
       </c>
       <c r="Q24" s="35">
-        <v>226</v>
+        <v>117088</v>
       </c>
       <c r="R24" s="37">
-        <v>297</v>
+        <v>152492</v>
       </c>
       <c r="S24" s="39">
-        <v>-71</v>
+        <v>-35404</v>
       </c>
       <c r="T24" s="41">
-        <v>3</v>
+        <v>1446</v>
       </c>
       <c r="U24" s="43">
-        <v>9</v>
+        <v>4469</v>
       </c>
       <c r="V24" s="45">
-        <v>-6</v>
+        <v>-3023</v>
       </c>
       <c r="W24" s="47">
-        <v>3</v>
+        <v>1278</v>
       </c>
       <c r="X24" s="49">
-        <v>15</v>
+        <v>8060</v>
       </c>
       <c r="Y24" s="51">
-        <v>-13</v>
+        <v>-6782</v>
       </c>
       <c r="Z24" s="53">
-        <v>679</v>
+        <v>353293</v>
       </c>
       <c r="AA24" s="55">
-        <v>311</v>
+        <v>154091</v>
       </c>
       <c r="AB24" s="57">
-        <v>368</v>
+        <v>199202</v>
       </c>
       <c r="AC24" s="59">
-        <v>187</v>
+        <v>96884</v>
       </c>
       <c r="AD24" s="61">
-        <v>289</v>
+        <v>149186</v>
       </c>
       <c r="AE24" s="63">
-        <v>-101</v>
+        <v>-52302</v>
       </c>
       <c r="AF24" s="65">
         <v>0</v>
@@ -4053,16 +4053,16 @@
         <v>0</v>
       </c>
       <c r="AI24" s="71">
-        <v>90</v>
+        <v>47245</v>
       </c>
       <c r="AJ24" s="73">
-        <v>154</v>
+        <v>80062</v>
       </c>
       <c r="AK24" s="75">
-        <v>-64</v>
+        <v>-32817</v>
       </c>
       <c r="AL24" s="77">
-        <v>12318</v>
+        <v>6356362</v>
       </c>
     </row>
     <row r="25">
@@ -4070,94 +4070,94 @@
         <v>37</v>
       </c>
       <c r="B25" s="5">
-        <v>941</v>
+        <v>457120</v>
       </c>
       <c r="C25" s="7">
-        <v>1060</v>
+        <v>511583</v>
       </c>
       <c r="D25" s="9">
-        <v>-119</v>
+        <v>-54462</v>
       </c>
       <c r="E25" s="11">
-        <v>2147</v>
+        <v>1038624</v>
       </c>
       <c r="F25" s="13">
-        <v>2331</v>
+        <v>1133562</v>
       </c>
       <c r="G25" s="15">
-        <v>-184</v>
+        <v>-94938</v>
       </c>
       <c r="H25" s="17">
-        <v>796</v>
+        <v>386746</v>
       </c>
       <c r="I25" s="19">
-        <v>483</v>
+        <v>232383</v>
       </c>
       <c r="J25" s="21">
-        <v>312</v>
+        <v>154363</v>
       </c>
       <c r="K25" s="23">
-        <v>167</v>
+        <v>80692</v>
       </c>
       <c r="L25" s="25">
-        <v>167</v>
+        <v>80108</v>
       </c>
       <c r="M25" s="27">
-        <v>0</v>
+        <v>584</v>
       </c>
       <c r="N25" s="29">
-        <v>34</v>
+        <v>16419</v>
       </c>
       <c r="O25" s="31">
-        <v>41</v>
+        <v>19827</v>
       </c>
       <c r="P25" s="33">
-        <v>-7</v>
+        <v>-3407</v>
       </c>
       <c r="Q25" s="35">
-        <v>73</v>
+        <v>35351</v>
       </c>
       <c r="R25" s="37">
-        <v>72</v>
+        <v>34685</v>
       </c>
       <c r="S25" s="39">
-        <v>0</v>
+        <v>666</v>
       </c>
       <c r="T25" s="41">
-        <v>1</v>
+        <v>348</v>
       </c>
       <c r="U25" s="43">
-        <v>1</v>
+        <v>372</v>
       </c>
       <c r="V25" s="45">
-        <v>0</v>
+        <v>-24</v>
       </c>
       <c r="W25" s="47">
-        <v>1</v>
+        <v>428</v>
       </c>
       <c r="X25" s="49">
-        <v>3</v>
+        <v>1737</v>
       </c>
       <c r="Y25" s="51">
-        <v>-3</v>
+        <v>-1309</v>
       </c>
       <c r="Z25" s="53">
-        <v>474</v>
+        <v>230897</v>
       </c>
       <c r="AA25" s="55">
-        <v>128</v>
+        <v>61772</v>
       </c>
       <c r="AB25" s="57">
-        <v>346</v>
+        <v>169125</v>
       </c>
       <c r="AC25" s="59">
-        <v>47</v>
+        <v>22611</v>
       </c>
       <c r="AD25" s="61">
-        <v>71</v>
+        <v>33882</v>
       </c>
       <c r="AE25" s="63">
-        <v>-24</v>
+        <v>-11272</v>
       </c>
       <c r="AF25" s="65">
         <v>0</v>
@@ -4169,16 +4169,16 @@
         <v>0</v>
       </c>
       <c r="AI25" s="71">
-        <v>27</v>
+        <v>13032</v>
       </c>
       <c r="AJ25" s="73">
-        <v>37</v>
+        <v>17995</v>
       </c>
       <c r="AK25" s="75">
-        <v>-10</v>
+        <v>-4963</v>
       </c>
       <c r="AL25" s="77">
-        <v>3911</v>
+        <v>1895522</v>
       </c>
     </row>
     <row r="26">
@@ -4186,94 +4186,94 @@
         <v>38</v>
       </c>
       <c r="B26" s="5">
-        <v>1454</v>
+        <v>712982</v>
       </c>
       <c r="C26" s="7">
-        <v>1496</v>
+        <v>713256</v>
       </c>
       <c r="D26" s="9">
-        <v>-42</v>
+        <v>-274</v>
       </c>
       <c r="E26" s="11">
-        <v>3537</v>
+        <v>1713522</v>
       </c>
       <c r="F26" s="13">
-        <v>4602</v>
+        <v>2249398</v>
       </c>
       <c r="G26" s="15">
-        <v>-1065</v>
+        <v>-535877</v>
       </c>
       <c r="H26" s="17">
-        <v>2031</v>
+        <v>983011</v>
       </c>
       <c r="I26" s="19">
-        <v>850</v>
+        <v>409943</v>
       </c>
       <c r="J26" s="21">
-        <v>1180</v>
+        <v>573067</v>
       </c>
       <c r="K26" s="23">
-        <v>204</v>
+        <v>97886</v>
       </c>
       <c r="L26" s="25">
-        <v>264</v>
+        <v>127362</v>
       </c>
       <c r="M26" s="27">
-        <v>-59</v>
+        <v>-29476</v>
       </c>
       <c r="N26" s="29">
-        <v>218</v>
+        <v>104904</v>
       </c>
       <c r="O26" s="31">
-        <v>42</v>
+        <v>20180</v>
       </c>
       <c r="P26" s="33">
-        <v>176</v>
+        <v>84724</v>
       </c>
       <c r="Q26" s="35">
-        <v>566</v>
+        <v>272417</v>
       </c>
       <c r="R26" s="37">
-        <v>178</v>
+        <v>85015</v>
       </c>
       <c r="S26" s="39">
-        <v>389</v>
+        <v>187402</v>
       </c>
       <c r="T26" s="41">
-        <v>2</v>
+        <v>746</v>
       </c>
       <c r="U26" s="43">
-        <v>1</v>
+        <v>323</v>
       </c>
       <c r="V26" s="45">
-        <v>1</v>
+        <v>424</v>
       </c>
       <c r="W26" s="47">
-        <v>17</v>
+        <v>8066</v>
       </c>
       <c r="X26" s="49">
-        <v>33</v>
+        <v>16722</v>
       </c>
       <c r="Y26" s="51">
-        <v>-16</v>
+        <v>-8655</v>
       </c>
       <c r="Z26" s="53">
-        <v>866</v>
+        <v>422483</v>
       </c>
       <c r="AA26" s="55">
-        <v>94</v>
+        <v>45270</v>
       </c>
       <c r="AB26" s="57">
-        <v>772</v>
+        <v>377213</v>
       </c>
       <c r="AC26" s="59">
-        <v>157</v>
+        <v>76508</v>
       </c>
       <c r="AD26" s="61">
-        <v>240</v>
+        <v>115073</v>
       </c>
       <c r="AE26" s="63">
-        <v>-82</v>
+        <v>-38564</v>
       </c>
       <c r="AF26" s="65">
         <v>0</v>
@@ -4285,16 +4285,16 @@
         <v>0</v>
       </c>
       <c r="AI26" s="71">
-        <v>46</v>
+        <v>22370</v>
       </c>
       <c r="AJ26" s="73">
-        <v>120</v>
+        <v>59287</v>
       </c>
       <c r="AK26" s="75">
-        <v>-74</v>
+        <v>-36917</v>
       </c>
       <c r="AL26" s="77">
-        <v>7068</v>
+        <v>3431884</v>
       </c>
     </row>
     <row r="27">
@@ -4302,94 +4302,94 @@
         <v>39</v>
       </c>
       <c r="B27" s="6">
-        <v>1288</v>
+        <v>586361</v>
       </c>
       <c r="C27" s="8">
-        <v>1859</v>
+        <v>825867</v>
       </c>
       <c r="D27" s="10">
-        <v>-572</v>
+        <v>-239506</v>
       </c>
       <c r="E27" s="12">
-        <v>13843</v>
+        <v>6232811</v>
       </c>
       <c r="F27" s="14">
-        <v>14139</v>
+        <v>6401468</v>
       </c>
       <c r="G27" s="16">
-        <v>-296</v>
+        <v>-168657</v>
       </c>
       <c r="H27" s="18">
-        <v>2438</v>
+        <v>1114979</v>
       </c>
       <c r="I27" s="20">
-        <v>1116</v>
+        <v>496294</v>
       </c>
       <c r="J27" s="22">
-        <v>1321</v>
+        <v>618685</v>
       </c>
       <c r="K27" s="24">
-        <v>110</v>
+        <v>49582</v>
       </c>
       <c r="L27" s="26">
-        <v>254</v>
+        <v>114237</v>
       </c>
       <c r="M27" s="28">
-        <v>-143</v>
+        <v>-64655</v>
       </c>
       <c r="N27" s="30">
-        <v>202</v>
+        <v>92207</v>
       </c>
       <c r="O27" s="32">
-        <v>40</v>
+        <v>18272</v>
       </c>
       <c r="P27" s="34">
-        <v>162</v>
+        <v>73934</v>
       </c>
       <c r="Q27" s="36">
-        <v>381</v>
+        <v>174296</v>
       </c>
       <c r="R27" s="38">
-        <v>140</v>
+        <v>62500</v>
       </c>
       <c r="S27" s="40">
-        <v>241</v>
+        <v>111796</v>
       </c>
       <c r="T27" s="42">
-        <v>4</v>
+        <v>1749</v>
       </c>
       <c r="U27" s="44">
-        <v>16</v>
+        <v>6726</v>
       </c>
       <c r="V27" s="46">
-        <v>-12</v>
+        <v>-4976</v>
       </c>
       <c r="W27" s="48">
-        <v>29</v>
+        <v>13279</v>
       </c>
       <c r="X27" s="50">
-        <v>74</v>
+        <v>33369</v>
       </c>
       <c r="Y27" s="52">
-        <v>-46</v>
+        <v>-20090</v>
       </c>
       <c r="Z27" s="54">
-        <v>1371</v>
+        <v>630345</v>
       </c>
       <c r="AA27" s="56">
-        <v>172</v>
+        <v>77923</v>
       </c>
       <c r="AB27" s="58">
-        <v>1199</v>
+        <v>552422</v>
       </c>
       <c r="AC27" s="60">
-        <v>341</v>
+        <v>153521</v>
       </c>
       <c r="AD27" s="62">
-        <v>421</v>
+        <v>183266</v>
       </c>
       <c r="AE27" s="64">
-        <v>-80</v>
+        <v>-29745</v>
       </c>
       <c r="AF27" s="66">
         <v>0</v>
@@ -4401,16 +4401,16 @@
         <v>0</v>
       </c>
       <c r="AI27" s="72">
-        <v>99</v>
+        <v>44640</v>
       </c>
       <c r="AJ27" s="74">
-        <v>553</v>
+        <v>255162</v>
       </c>
       <c r="AK27" s="76">
-        <v>-454</v>
+        <v>-210522</v>
       </c>
       <c r="AL27" s="78">
-        <v>17668</v>
+        <v>7978792</v>
       </c>
     </row>
   </sheetData>
